--- a/Test/MC_Ssf/T1/Sensors_data_1000017.xlsx
+++ b/Test/MC_Ssf/T1/Sensors_data_1000017.xlsx
@@ -475,13 +475,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.990536229075541</v>
+        <v>0.9851899116410995</v>
       </c>
       <c r="D2" t="n">
-        <v>0.000500750913547536</v>
+        <v>0.0007836374458591509</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.002640690549014613</v>
+        <v>0.0004930172124204546</v>
       </c>
       <c r="F2" t="n">
         <v>3</v>
@@ -500,13 +500,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.3856471076100599</v>
+        <v>0.9023977056362371</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02439571149297667</v>
+        <v>0.003875748684258871</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3543177579508378</v>
+        <v>0.01743771218174089</v>
       </c>
       <c r="F3" t="n">
         <v>2</v>
@@ -525,13 +525,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.2341893228100576</v>
+        <v>0.3556665677055019</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0316302807094033</v>
+        <v>0.01651322609688858</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4776371964177778</v>
+        <v>0.3994035266060551</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
@@ -550,13 +550,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.80150299096511</v>
+        <v>0.2625175810387748</v>
       </c>
       <c r="D5" t="n">
-        <v>0.01365765397206011</v>
+        <v>0.05074272775001795</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3584531211016305</v>
+        <v>0.6429398896165601</v>
       </c>
       <c r="F5" t="n">
         <v>3</v>
@@ -575,13 +575,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.8961115287646673</v>
+        <v>0.2191055939491567</v>
       </c>
       <c r="D6" t="n">
-        <v>0.004787208300866965</v>
+        <v>0.03598382128733998</v>
       </c>
       <c r="E6" t="n">
-        <v>0.02582797092613082</v>
+        <v>0.3123469652042704</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
